--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>680040.3809121599</v>
+        <v>611606.4674639702</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554238</v>
+        <v>337002.2430554241</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>43.99147395048597</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>100.3796369526212</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.1427070647979</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>51.87748497259537</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.47049842454874</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>38.2120941396708</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1274,7 +1274,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>192.7822984745804</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>234.0282866266444</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773045</v>
       </c>
     </row>
     <row r="13">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>16.88986550434918</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.275596830496854</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>193.4930127987226</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.7389733439016</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903363</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>239.181548721035</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>57.40387281015133</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
         <v>61.42221998250818</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>64.90553838237537</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>215.5834727383627</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>146.6850513083905</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>90.05347083351249</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>86.2591066233305</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>55.90301252244944</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>11.10129556788537</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>296.7199527411453</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,28 +2715,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>4.789952192105397</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>249.0529787410937</v>
       </c>
       <c r="I29" t="n">
-        <v>116.8305046324856</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>213.6743229269905</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>10.66973651011618</v>
       </c>
       <c r="G32" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3195,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>216.6993815150878</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>279.0782658775866</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>302.3551236970668</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3395,7 +3395,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T36" t="n">
         <v>196.8897623984489</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3468,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>171.6193552572332</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>305.3069157516003</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -3553,7 +3553,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.97699675700453</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>22.96159132124588</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>177.2926684532968</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>398.834851475613</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>22.35153719005459</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.305787840852878</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.52353645864948</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.14365212156745</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238.1700046645579</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C3" t="n">
-        <v>63.71697538343088</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D3" t="n">
-        <v>63.71697538343088</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E3" t="n">
-        <v>63.71697538343088</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4421,40 +4421,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>689.4702815141908</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>446.0215048700907</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X3" t="n">
-        <v>238.1700046645579</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y3" t="n">
-        <v>238.1700046645579</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4512,28 +4512,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>376.1934816808115</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>132.7447050367114</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>31.35113235729608</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>31.35113235729608</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>31.35113235729608</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.35113235729608</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,10 +4655,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="X6" t="n">
-        <v>257.2326523711826</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.47235360622864</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4758,19 +4758,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4837,19 +4837,19 @@
         <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57.87921799876909</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>57.87921799876909</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>57.87921799876909</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>57.87921799876909</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>226.0945550188371</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W9" t="n">
-        <v>226.0945550188371</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>226.0945550188371</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>226.0945550188371</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2302.336936304456</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>770.9958865030542</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>770.9958865030542</v>
       </c>
       <c r="G11" t="n">
         <v>534.603677789272</v>
@@ -5041,10 +5041,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224079</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2302.336936304456</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2302.336936304456</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2302.336936304456</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>2302.336936304456</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X11" t="n">
-        <v>2302.336936304456</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y11" t="n">
-        <v>2302.336936304456</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.9687959810047</v>
+        <v>71.00345202677778</v>
       </c>
       <c r="C13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036446</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>108.9687959810047</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W13" t="n">
-        <v>108.9687959810047</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X13" t="n">
-        <v>108.9687959810047</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.9687959810047</v>
+        <v>252.6519168570175</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>952.5674858910851</v>
+        <v>1130.084661047914</v>
       </c>
       <c r="C14" t="n">
-        <v>952.5674858910851</v>
+        <v>761.1221441075027</v>
       </c>
       <c r="D14" t="n">
-        <v>952.5674858910851</v>
+        <v>402.8564455007522</v>
       </c>
       <c r="E14" t="n">
-        <v>952.5674858910851</v>
+        <v>402.8564455007522</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
         <v>207.4089578252748</v>
@@ -5281,16 +5281,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5317,13 +5317,13 @@
         <v>1893.689751284806</v>
       </c>
       <c r="W14" t="n">
-        <v>1540.921096014692</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X14" t="n">
-        <v>1167.455337753612</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y14" t="n">
-        <v>952.5674858910851</v>
+        <v>1130.084661047914</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5357,25 +5357,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5442,37 +5442,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
         <v>53.94298182036445</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>750.1002187247734</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="C17" t="n">
-        <v>381.1377017843616</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="D17" t="n">
-        <v>381.1377017843616</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E17" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F17" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5515,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5545,22 +5545,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2584.136691639472</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2584.136691639472</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>2253.073804295901</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W17" t="n">
-        <v>1900.305149025787</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X17" t="n">
-        <v>1526.839390764707</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y17" t="n">
-        <v>1136.700058788895</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>184.2708856551153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C19" t="n">
-        <v>184.2708856551153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D19" t="n">
-        <v>184.2708856551153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E19" t="n">
-        <v>184.2708856551153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F19" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5709,16 +5709,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>184.2708856551153</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>184.2708856551153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X19" t="n">
-        <v>184.2708856551153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y19" t="n">
-        <v>184.2708856551153</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1865.381229508782</v>
+        <v>1303.85528118563</v>
       </c>
       <c r="C20" t="n">
-        <v>1496.41871256837</v>
+        <v>1303.85528118563</v>
       </c>
       <c r="D20" t="n">
-        <v>1138.15301396162</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E20" t="n">
-        <v>752.3647613633757</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F20" t="n">
         <v>534.603677789272</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X20" t="n">
-        <v>2642.120401548716</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y20" t="n">
-        <v>2251.981069572904</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5855,25 +5855,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>291.7960311703076</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C22" t="n">
-        <v>291.7960311703076</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D22" t="n">
-        <v>291.7960311703076</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E22" t="n">
-        <v>291.7960311703076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>144.9060836723973</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X22" t="n">
-        <v>473.4444960005474</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y22" t="n">
-        <v>473.4444960005474</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776797</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776797</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2336.355323790141</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1983.586668520027</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J24" t="n">
         <v>53.94298182036445</v>
@@ -6080,31 +6080,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>110.4106712369801</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>110.4106712369801</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>110.4106712369801</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6183,16 +6183,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X25" t="n">
-        <v>274.7355609638946</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1349.56916835588</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="C26" t="n">
-        <v>1349.56916835588</v>
+        <v>1039.120524372067</v>
       </c>
       <c r="D26" t="n">
-        <v>1349.56916835588</v>
+        <v>680.8548257653165</v>
       </c>
       <c r="E26" t="n">
-        <v>963.780915757636</v>
+        <v>680.8548257653165</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>680.8548257653165</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
@@ -6238,7 +6238,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6247,31 +6247,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V26" t="n">
-        <v>2465.942913862886</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W26" t="n">
-        <v>2113.174258592772</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X26" t="n">
-        <v>1739.708500331692</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y26" t="n">
-        <v>1349.56916835588</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>2528.212908090316</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>2378.09626867798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>2373.257933130399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2226.367985632489</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2226.367985632489</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018223</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018223</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1284.970060705655</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C29" t="n">
-        <v>916.0075437652436</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="D29" t="n">
-        <v>557.7418451584931</v>
+        <v>1520.249612705074</v>
       </c>
       <c r="E29" t="n">
-        <v>171.9535925602489</v>
+        <v>1134.461360106829</v>
       </c>
       <c r="F29" t="n">
-        <v>171.9535925602489</v>
+        <v>723.4754553172218</v>
       </c>
       <c r="G29" t="n">
-        <v>171.9535925602489</v>
+        <v>305.5116472154086</v>
       </c>
       <c r="H29" t="n">
-        <v>171.9535925602489</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>1675.109392681467</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1284.970060705655</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005476</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="W31" t="n">
-        <v>184.027325963587</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1920.409918978289</v>
+        <v>1209.91251709572</v>
       </c>
       <c r="C32" t="n">
-        <v>1551.447402037877</v>
+        <v>840.9500001553081</v>
       </c>
       <c r="D32" t="n">
-        <v>1193.181703431127</v>
+        <v>482.6843015485576</v>
       </c>
       <c r="E32" t="n">
-        <v>807.3934508328825</v>
+        <v>482.6843015485576</v>
       </c>
       <c r="F32" t="n">
-        <v>396.407546043275</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6718,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="X32" t="n">
-        <v>2697.149091018222</v>
+        <v>1209.91251709572</v>
       </c>
       <c r="Y32" t="n">
-        <v>2307.009759042411</v>
+        <v>1209.91251709572</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6800,22 +6800,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>777.3160057778007</v>
+        <v>1645.450628940881</v>
       </c>
       <c r="C35" t="n">
-        <v>777.3160057778007</v>
+        <v>1645.450628940881</v>
       </c>
       <c r="D35" t="n">
-        <v>777.3160057778007</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E35" t="n">
-        <v>777.3160057778007</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F35" t="n">
-        <v>777.3160057778007</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>359.3521976759876</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628377</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V35" t="n">
-        <v>1893.689751284806</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W35" t="n">
-        <v>1540.921096014692</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X35" t="n">
-        <v>1167.455337753612</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y35" t="n">
-        <v>777.3160057778007</v>
+        <v>1645.450628940881</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2667.732171871845</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>2077.988902792793</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1646.746562480845</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="C38" t="n">
-        <v>1646.746562480845</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.746562480845</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E38" t="n">
-        <v>1260.958309882601</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
         <v>207.4089578252748</v>
@@ -7174,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V38" t="n">
-        <v>2423.485734520778</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W38" t="n">
-        <v>2423.485734520778</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X38" t="n">
-        <v>2423.485734520778</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y38" t="n">
-        <v>2033.346402544967</v>
+        <v>1542.779601230298</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7256,10 +7256,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
         <v>1194.968834417902</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>678.65727031047</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C40" t="n">
-        <v>509.7210873825632</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D40" t="n">
-        <v>359.6044479702274</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E40" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F40" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036445</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1580.775345511217</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="C41" t="n">
-        <v>1580.775345511217</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="D41" t="n">
-        <v>1580.775345511217</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.987092912972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>784.0011881233647</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748108</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X41" t="n">
-        <v>1970.914677487028</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y41" t="n">
-        <v>1580.775345511217</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E43" t="n">
         <v>53.94298182036445</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>76.52029211334889</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1584.314837422907</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C44" t="n">
-        <v>1215.352320482495</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D44" t="n">
-        <v>857.0866218757444</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E44" t="n">
-        <v>471.2983692775002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F44" t="n">
-        <v>60.31246448789261</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G44" t="n">
-        <v>60.31246448789261</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2654.196023888274</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.018536202444</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.018536202444</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.256750840535</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.193863496965</v>
       </c>
       <c r="W44" t="n">
-        <v>2344.380435748108</v>
+        <v>1540.425208226851</v>
       </c>
       <c r="X44" t="n">
-        <v>1970.914677487028</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="Y44" t="n">
-        <v>1970.914677487028</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7739,13 +7739,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7815,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174722</v>
       </c>
     </row>
   </sheetData>
@@ -8069,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,13 +10904,13 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C2" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22567,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>101.0777384428979</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22646,7 +22646,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>53.98936737787663</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22728,7 +22728,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>137.4656039084742</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>227.3726215175137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137.3904765850695</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22916,13 +22916,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>148.2872437222262</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>310.2633432389318</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23077,13 +23077,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>166.9258651286752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23111,7 +23111,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>106.8571182537131</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23202,10 +23202,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,19 +23260,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>172.4905932964271</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>179.7558833941506</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>150.3569555942786</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>125.6900249618414</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>213.3830329429889</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>173.498965312152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229441</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>115.501492899648</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23785,10 +23785,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>159.0444475475065</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23910,7 +23910,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>5.94099699593491</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>45.199959188537</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>317.8283032811052</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>191.2925730033488</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24025,13 +24025,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>20.56176979023729</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>77.25633142553842</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24186,13 +24186,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>241.4931518468044</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>89.5180355004818</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24423,7 +24423,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>28.9878097027507</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>395.7747501738261</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>117.0642172796497</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,28 +24603,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>141.6440104544638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>74.86979402326344</v>
       </c>
       <c r="I29" t="n">
-        <v>35.10081161237569</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24891,19 +24891,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>11.3607825310938</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>96.92615468724685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>396.2063092315952</v>
       </c>
       <c r="G32" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25083,22 +25083,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>69.82361682150318</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>75.60477574309635</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>21.56764906729035</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>211.1144864062474</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>101.5691299901111</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.8549834249328</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
@@ -25602,16 +25602,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>263.5614070153451</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>204.637701618965</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>14.94931854518194</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1161092074294</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,28 +25833,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>229.7861061337734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>317.6169849235043</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>11.95486611616223</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6883280603699</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778747</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>798427.8661131492</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
         <v>231322.0880126061</v>
@@ -26328,7 +26328,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="H2" t="n">
         <v>231322.0880126061</v>
@@ -26346,7 +26346,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
         <v>231322.0880126061</v>
@@ -26355,7 +26355,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126063</v>
+        <v>231322.0880126062</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>432846.1740429962</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740582</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26493,16 +26493,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="M5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="M5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26511,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13036.85191122433</v>
+        <v>-25254.86253126476</v>
       </c>
       <c r="C6" t="n">
-        <v>67732.57962032343</v>
+        <v>55514.56900028297</v>
       </c>
       <c r="D6" t="n">
-        <v>67732.57962032346</v>
+        <v>55514.56900028297</v>
       </c>
       <c r="E6" t="n">
-        <v>-268984.4916634627</v>
+        <v>-275052.905409282</v>
       </c>
       <c r="F6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="G6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="H6" t="n">
-        <v>163861.6823795333</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="I6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="J6" t="n">
-        <v>100801.7397804271</v>
+        <v>94733.32603460792</v>
       </c>
       <c r="K6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337143</v>
       </c>
       <c r="L6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="M6" t="n">
-        <v>55888.32170547528</v>
+        <v>49819.90795965608</v>
       </c>
       <c r="N6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="O6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="P6" t="n">
-        <v>163861.6823795335</v>
+        <v>157793.2686337142</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170867</v>
@@ -26767,10 +26767,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170866</v>
@@ -26813,16 +26813,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26831,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768968</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,22 +33593,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -34789,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,13 +35023,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>54.37527471535621</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
@@ -37867,10 +37867,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38028,7 +38028,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
